--- a/요구사항명세서/요구사항 명세서.xlsx
+++ b/요구사항명세서/요구사항 명세서.xlsx
@@ -1149,35 +1149,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>판매등록 페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1923,6 +1894,35 @@
         <charset val="129"/>
       </rPr>
       <t>계좌번호입력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2240,10 +2240,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2648,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2807,7 +2807,7 @@
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="24" t="s">
         <v>101</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="13" t="s">
         <v>103</v>
       </c>
@@ -2843,12 +2843,12 @@
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>107</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
@@ -2861,12 +2861,12 @@
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -2879,12 +2879,12 @@
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -2897,12 +2897,12 @@
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
@@ -2915,12 +2915,12 @@
       <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
@@ -2933,12 +2933,12 @@
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
